--- a/pop_tau (by LOOCV).xlsx
+++ b/pop_tau (by LOOCV).xlsx
@@ -4630,7 +4630,7 @@
         <v>44</v>
       </c>
       <c r="H11">
-        <v>2.812784010768842</v>
+        <v>2.459521910376059</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>47</v>
       </c>
       <c r="H14">
-        <v>2.64931636614763</v>
+        <v>2.552460315764852</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>48</v>
       </c>
       <c r="H15">
-        <v>4.099999999999998</v>
+        <v>5.749999999999998</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>49</v>
       </c>
       <c r="H16">
-        <v>2.293492599297754</v>
+        <v>3.400000000000056</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>50</v>
       </c>
       <c r="H17">
-        <v>2.139150686955866</v>
+        <v>2.069002961511835</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>51</v>
       </c>
       <c r="H18">
-        <v>2.018181818181812</v>
+        <v>2.018181818181819</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>52</v>
       </c>
       <c r="H19">
-        <v>2.018181818181777</v>
+        <v>2.018181818181803</v>
       </c>
     </row>
   </sheetData>
